--- a/biology/Botanique/Pin_tordu/Pin_tordu.xlsx
+++ b/biology/Botanique/Pin_tordu/Pin_tordu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus contorta
 Le Pin tordu (Pinus contorta) est un arbre appartenant au genre Pinus et à la famille des Pinacées. On le trouve dans l'ouest de l'Amérique du Nord, de l'Alaska au Mexique.
@@ -513,10 +525,12 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada, on retrouve deux variétés de pin tordu. La première, le pin tordu latifolié (Pinus contorta var. latifolia) ayant une distribution de la chaîne Côtière aux montagnes Rocheuses. Il est aussi connu sous les noms de « pin lodgepole », de « pin de Murray » et de « cyprès »[1].
-La seconde variété, le pin tordu (Pinus contorta var. contorta), se trouve sur la côte du Pacifique. Il est aussi connu sous le nom de « pin vrillé »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, on retrouve deux variétés de pin tordu. La première, le pin tordu latifolié (Pinus contorta var. latifolia) ayant une distribution de la chaîne Côtière aux montagnes Rocheuses. Il est aussi connu sous les noms de « pin lodgepole », de « pin de Murray » et de « cyprès ».
+La seconde variété, le pin tordu (Pinus contorta var. contorta), se trouve sur la côte du Pacifique. Il est aussi connu sous le nom de « pin vrillé ».
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Capacité à fixer l'azote de l'air</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2012, toutes les symbioses et endosymbioses permettant à des végétaux de fixer de l'azote atmosphérique avec l'aide de bactéries produisant de la nitrogénase avait été trouvées chez les herbacées, dont les graminées, tropicales notamment, ou, chez des arbres, (aulnes), au niveau racinaire. En 2012, Le pin tordu est le premier conifère chez lequel on a découvert qu'il abritait des colonies de Paenibacillus polymyxa, une bactérie diazotrophique, c'est-à-dire fixatrices d'azote[2]). Quatre ans plus tard (en 2016), une autre équipe de chercheurs montrait qu'il en allait de même pour le pin flexible (Pinus flexilis)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2012, toutes les symbioses et endosymbioses permettant à des végétaux de fixer de l'azote atmosphérique avec l'aide de bactéries produisant de la nitrogénase avait été trouvées chez les herbacées, dont les graminées, tropicales notamment, ou, chez des arbres, (aulnes), au niveau racinaire. En 2012, Le pin tordu est le premier conifère chez lequel on a découvert qu'il abritait des colonies de Paenibacillus polymyxa, une bactérie diazotrophique, c'est-à-dire fixatrices d'azote). Quatre ans plus tard (en 2016), une autre équipe de chercheurs montrait qu'il en allait de même pour le pin flexible (Pinus flexilis).
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Pyrophilie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus contortata est connu pour sa pyrophilie : il a besoin de feu pour ouvrir ses cônes et libérer ses diaspores.
 Cette connaissance est apparue dans le Parc national de Yellowstone où, initialement, les incendies avaient été combattus par les gestionnaires du parc. S'apercevant que les incendies étaient des perturbations nécessaires au renouvellement du couvert végétal et indispensables à la reproduction de Pinus contorta, ils ont modifié cette gestion et ont laissé les incendies se produire.
@@ -609,10 +627,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cambium du pin tordu est comestible, les premiers peuples Canadiens en Colombie-Britannique du pacifique nord-ouest en ont consommé en large quantité. La récolte et la consommation du cambium de pin ont diminué aujourd'hui. Des recherches ont été faites sur cet aliment, l'analyse nutritionnelle du cambium du pin tordu ayant révélé que les tissus étaient riches en protéines et en sucres ainsi qu'une série de micronutriments[4].
-Pour savoir si une récolte de cambium est envisageable, l'écorce externe du pin est retirée pour voir si le cambium est sucré, juteux et si son épaisseur est suffisante. Dans ce cas, un peu de cambium peut être prélevé sans atteindre à la vie du pin. Le cambium étant la zone de transit de la sève, il est essentiel de ne jamais retirer ce précieux cambium sur tout le tour de l'arbre[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cambium du pin tordu est comestible, les premiers peuples Canadiens en Colombie-Britannique du pacifique nord-ouest en ont consommé en large quantité. La récolte et la consommation du cambium de pin ont diminué aujourd'hui. Des recherches ont été faites sur cet aliment, l'analyse nutritionnelle du cambium du pin tordu ayant révélé que les tissus étaient riches en protéines et en sucres ainsi qu'une série de micronutriments.
+Pour savoir si une récolte de cambium est envisageable, l'écorce externe du pin est retirée pour voir si le cambium est sucré, juteux et si son épaisseur est suffisante. Dans ce cas, un peu de cambium peut être prélevé sans atteindre à la vie du pin. Le cambium étant la zone de transit de la sève, il est essentiel de ne jamais retirer ce précieux cambium sur tout le tour de l'arbre.
 </t>
         </is>
       </c>
